--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3982.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3982.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.276672829122894</v>
+        <v>1.378287315368652</v>
       </c>
       <c r="B1">
-        <v>2.750532766255066</v>
+        <v>1.50287926197052</v>
       </c>
       <c r="C1">
-        <v>5.254965860491296</v>
+        <v>3.860518217086792</v>
       </c>
       <c r="D1">
-        <v>3.005807054490294</v>
+        <v>5.674215316772461</v>
       </c>
       <c r="E1">
-        <v>1.326214700377767</v>
+        <v>1.590700149536133</v>
       </c>
     </row>
   </sheetData>
